--- a/data/trans_orig/IP22B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP22B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E8899A-CEAC-4001-844E-C9A31E363EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15CEA7C7-D86A-4720-A73C-4DE362E6F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CEBDA0B-D1F5-442D-ADD0-7113DC6694D4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B5F3D9A9-51D2-417A-815C-E1CEE0E05D89}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="726">
   <si>
     <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2007 (Tasa respuesta: 20,63%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -101,7 +101,7 @@
     <t>59,35%</t>
   </si>
   <si>
-    <t>19,31%</t>
+    <t>19,35%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>37,08%</t>
   </si>
   <si>
-    <t>84,79%</t>
+    <t>84,39%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
@@ -128,28 +128,28 @@
     <t>40,65%</t>
   </si>
   <si>
-    <t>80,69%</t>
+    <t>80,65%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>15,21%</t>
+    <t>15,61%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -164,2029 +164,2059 @@
     <t>3,35%</t>
   </si>
   <si>
-    <t>14,46%</t>
+    <t>16,85%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>7,4%</t>
+    <t>7,92%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>54,09%</t>
   </si>
   <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>52,29%</t>
   </si>
   <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
     <t>39,89%</t>
   </si>
   <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2016 (Tasa respuesta: 17,12%)</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2015 (Tasa respuesta: 17,12%)</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
 </sst>
 </file>
@@ -2598,7 +2628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE242D3-9D22-45F5-8489-EF49D02FE63A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F42EB12-4CD0-4E74-9D16-AC6C114382C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3751,10 +3781,10 @@
         <v>108</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -3763,10 +3793,10 @@
         <v>3313</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>112</v>
@@ -4089,10 +4119,10 @@
         <v>146</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4137,13 @@
         <v>6705</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7">
         <v>9</v>
@@ -4122,13 +4152,13 @@
         <v>7030</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -4137,13 +4167,13 @@
         <v>13735</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4188,13 @@
         <v>27242</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -4173,13 +4203,13 @@
         <v>18583</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>65</v>
@@ -4188,13 +4218,13 @@
         <v>45825</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,7 +4298,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4277,13 +4307,13 @@
         <v>1566</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -4292,13 +4322,13 @@
         <v>1566</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4343,13 @@
         <v>1333</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4328,13 +4358,13 @@
         <v>1123</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M35" s="7">
         <v>4</v>
@@ -4343,13 +4373,13 @@
         <v>2457</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4394,13 @@
         <v>6053</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -4379,13 +4409,13 @@
         <v>5883</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -4394,13 +4424,13 @@
         <v>11937</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4445,13 @@
         <v>62616</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H37" s="7">
         <v>87</v>
@@ -4430,13 +4460,13 @@
         <v>56470</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M37" s="7">
         <v>181</v>
@@ -4445,13 +4475,13 @@
         <v>119085</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4496,13 @@
         <v>85722</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H38" s="7">
         <v>101</v>
@@ -4481,13 +4511,13 @@
         <v>66619</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M38" s="7">
         <v>229</v>
@@ -4496,13 +4526,13 @@
         <v>152342</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4588,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +4609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F9E323-FE95-4345-953E-4DCCF120DA01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF925C-5C68-4686-A64B-F23FC4DC4485}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4596,7 +4626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4709,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4739,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4790,7 +4820,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4841,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4886,13 @@
         <v>3234</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4871,13 +4901,13 @@
         <v>1622</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4886,13 +4916,13 @@
         <v>4855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4937,13 @@
         <v>4006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4922,10 +4952,10 @@
         <v>2444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4937,13 +4967,13 @@
         <v>6450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,7 +5047,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5032,7 +5062,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5047,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,7 +5098,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5083,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5098,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,28 +5143,28 @@
         <v>652</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5143,13 +5173,13 @@
         <v>652</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5194,13 @@
         <v>15114</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5179,13 +5209,13 @@
         <v>11328</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -5197,10 +5227,10 @@
         <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,13 +5245,13 @@
         <v>15466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -5230,13 +5260,13 @@
         <v>17325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -5245,13 +5275,13 @@
         <v>32792</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5340,7 +5370,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5355,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,7 +5406,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5385,13 +5415,13 @@
         <v>582</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5442,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -5663,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5708,13 @@
         <v>1558</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5693,13 +5723,13 @@
         <v>443</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -5711,10 +5741,10 @@
         <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5759,13 @@
         <v>1282</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5744,13 +5774,13 @@
         <v>1933</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -5759,13 +5789,13 @@
         <v>3215</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5810,13 @@
         <v>29312</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -5795,13 +5825,13 @@
         <v>11708</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -5810,13 +5840,13 @@
         <v>41020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5861,13 @@
         <v>28782</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -5846,13 +5876,13 @@
         <v>18778</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>74</v>
@@ -5861,13 +5891,13 @@
         <v>47560</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,7 +5971,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5956,7 +5986,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5986,13 +6016,13 @@
         <v>647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6001,13 +6031,13 @@
         <v>2653</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>275</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6016,13 +6046,13 @@
         <v>3300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6067,13 @@
         <v>2256</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6052,13 +6082,13 @@
         <v>2755</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -6067,13 +6097,13 @@
         <v>5012</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6118,13 @@
         <v>13475</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -6103,13 +6133,13 @@
         <v>13579</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M31" s="7">
         <v>36</v>
@@ -6118,13 +6148,13 @@
         <v>27053</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6169,13 @@
         <v>28602</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H32" s="7">
         <v>29</v>
@@ -6154,13 +6184,13 @@
         <v>22029</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M32" s="7">
         <v>68</v>
@@ -6169,13 +6199,13 @@
         <v>50631</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,7 +6279,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6264,7 +6294,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6279,7 +6309,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6324,13 @@
         <v>2205</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -6309,13 +6339,13 @@
         <v>3678</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -6327,10 +6357,10 @@
         <v>101</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6375,13 @@
         <v>5534</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>65</v>
+        <v>356</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -6360,13 +6390,13 @@
         <v>4688</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -6375,13 +6405,13 @@
         <v>10222</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>358</v>
+        <v>109</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6426,13 @@
         <v>88989</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
       <c r="H37" s="7">
         <v>97</v>
@@ -6411,13 +6441,13 @@
         <v>67335</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M37" s="7">
         <v>222</v>
@@ -6426,13 +6456,13 @@
         <v>156324</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6477,13 @@
         <v>108672</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H38" s="7">
         <v>132</v>
@@ -6462,13 +6492,13 @@
         <v>90632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M38" s="7">
         <v>287</v>
@@ -6477,13 +6507,13 @@
         <v>199304</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,7 +6569,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -6560,7 +6590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF93EED-CF42-41C7-B436-6235D727C7B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7970B2-D5A1-4205-944A-A9BF77967807}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6577,7 +6607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6837,13 +6867,13 @@
         <v>977</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6852,13 +6882,13 @@
         <v>2071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6867,13 +6897,13 @@
         <v>3049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,10 +6918,10 @@
         <v>3615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -6903,10 +6933,10 @@
         <v>3378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -6918,13 +6948,13 @@
         <v>6992</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7013,7 +7043,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7028,7 +7058,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,7 +7079,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7064,7 +7094,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7079,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -7109,13 +7139,13 @@
         <v>1608</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -7124,13 +7154,13 @@
         <v>1608</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7175,13 @@
         <v>5046</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -7160,13 +7190,13 @@
         <v>7338</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -7175,13 +7205,13 @@
         <v>12384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,13 +7226,13 @@
         <v>16207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -7211,13 +7241,13 @@
         <v>11642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -7226,13 +7256,13 @@
         <v>27849</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,7 +7366,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7381,13 @@
         <v>608</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7366,13 +7396,13 @@
         <v>1170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7381,13 +7411,13 @@
         <v>1779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7432,13 @@
         <v>1743</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>421</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -7417,13 +7447,13 @@
         <v>604</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -7432,13 +7462,13 @@
         <v>2347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7483,13 @@
         <v>13648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>430</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -7468,13 +7498,13 @@
         <v>13254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -7483,13 +7513,13 @@
         <v>26902</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7534,13 @@
         <v>17981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -7519,13 +7549,13 @@
         <v>22173</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -7534,13 +7564,13 @@
         <v>40154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7638,13 @@
         <v>634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7629,7 +7659,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -7638,13 +7668,13 @@
         <v>634</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,10 +7692,10 @@
         <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7674,13 +7704,13 @@
         <v>646</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7689,13 +7719,13 @@
         <v>2461</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>452</v>
+        <v>256</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>455</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7740,13 @@
         <v>549</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7725,13 +7755,13 @@
         <v>2626</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -7740,13 +7770,13 @@
         <v>3174</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7791,13 @@
         <v>9974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>462</v>
+        <v>257</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -7776,13 +7806,13 @@
         <v>16595</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -7791,13 +7821,13 @@
         <v>26568</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7812,13 +7842,13 @@
         <v>19438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>470</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -7827,13 +7857,13 @@
         <v>14420</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -7842,13 +7872,13 @@
         <v>33858</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,7 +7952,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7937,7 +7967,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7952,7 +7982,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7997,13 @@
         <v>3005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7982,13 +8012,13 @@
         <v>628</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -7997,13 +8027,13 @@
         <v>3633</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8048,13 @@
         <v>1433</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -8033,13 +8063,13 @@
         <v>3138</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>223</v>
+        <v>494</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -8048,13 +8078,13 @@
         <v>4570</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,13 +8099,13 @@
         <v>3750</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>497</v>
+        <v>398</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -8084,13 +8114,13 @@
         <v>3278</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -8099,13 +8129,13 @@
         <v>7028</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8150,13 @@
         <v>21548</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -8135,13 +8165,13 @@
         <v>16860</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>89</v>
+        <v>510</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M32" s="7">
         <v>54</v>
@@ -8150,13 +8180,13 @@
         <v>38408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8254,13 @@
         <v>634</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>513</v>
+        <v>173</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -8245,7 +8275,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -8254,13 +8284,13 @@
         <v>634</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8305,13 @@
         <v>5428</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -8290,13 +8320,13 @@
         <v>2444</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -8305,13 +8335,13 @@
         <v>7872</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,13 +8356,13 @@
         <v>3724</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>525</v>
+        <v>73</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -8341,13 +8371,13 @@
         <v>7975</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>309</v>
+        <v>528</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>527</v>
+        <v>426</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -8356,13 +8386,13 @@
         <v>11699</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,13 +8407,13 @@
         <v>33395</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -8392,13 +8422,13 @@
         <v>42535</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M37" s="7">
         <v>114</v>
@@ -8407,13 +8437,13 @@
         <v>75931</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8428,13 +8458,13 @@
         <v>78789</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H38" s="7">
         <v>107</v>
@@ -8443,13 +8473,13 @@
         <v>68472</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M38" s="7">
         <v>219</v>
@@ -8458,13 +8488,13 @@
         <v>147261</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,7 +8550,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -8541,7 +8571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E10A6E-4BEC-4FD8-9445-D1F26FB034E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E043C0-DB72-4F97-97D7-0A7AE5DAFA9A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8558,7 +8588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8671,7 +8701,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8686,7 +8716,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8722,7 +8752,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8737,7 +8767,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8773,7 +8803,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8788,7 +8818,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8818,7 +8848,7 @@
         <v>636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -8833,13 +8863,13 @@
         <v>963</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -8848,13 +8878,13 @@
         <v>1599</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>136</v>
+        <v>557</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8869,7 +8899,7 @@
         <v>671</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -8884,10 +8914,10 @@
         <v>3948</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -8899,13 +8929,13 @@
         <v>4619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8979,7 +9009,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8994,7 +9024,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -9009,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9030,7 +9060,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -9039,13 +9069,13 @@
         <v>593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -9054,13 +9084,13 @@
         <v>593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9075,13 +9105,13 @@
         <v>539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -9090,13 +9120,13 @@
         <v>2282</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>572</v>
+        <v>146</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -9105,13 +9135,13 @@
         <v>2821</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>63</v>
+        <v>577</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9126,13 +9156,13 @@
         <v>7116</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -9141,13 +9171,13 @@
         <v>2647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>579</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>582</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -9156,13 +9186,13 @@
         <v>9763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9177,13 +9207,13 @@
         <v>10310</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -9192,13 +9222,13 @@
         <v>9880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -9207,13 +9237,13 @@
         <v>20190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9287,7 +9317,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9302,7 +9332,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9317,7 +9347,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9332,13 +9362,13 @@
         <v>1456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>597</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -9347,13 +9377,13 @@
         <v>2993</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>600</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -9362,13 +9392,13 @@
         <v>4449</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,7 +9419,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -9398,13 +9428,13 @@
         <v>4033</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -9413,13 +9443,13 @@
         <v>4033</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>601</v>
+        <v>248</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,13 +9464,13 @@
         <v>13154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -9449,13 +9479,13 @@
         <v>9977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -9464,13 +9494,13 @@
         <v>23131</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,13 +9515,13 @@
         <v>17128</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -9500,13 +9530,13 @@
         <v>16993</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -9515,13 +9545,13 @@
         <v>34121</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9610,7 +9640,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -9625,7 +9655,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>621</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9640,13 +9670,13 @@
         <v>1984</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>454</v>
+        <v>627</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -9655,13 +9685,13 @@
         <v>1997</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>631</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -9670,13 +9700,13 @@
         <v>3981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>626</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,13 +9721,13 @@
         <v>4342</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9706,13 +9736,13 @@
         <v>759</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>286</v>
+        <v>639</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -9721,13 +9751,13 @@
         <v>5101</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9742,13 +9772,13 @@
         <v>2945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>644</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -9757,13 +9787,13 @@
         <v>3855</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -9772,13 +9802,13 @@
         <v>6800</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>390</v>
+        <v>527</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,13 +9823,13 @@
         <v>16027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>652</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -9808,13 +9838,13 @@
         <v>20150</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="M26" s="7">
         <v>48</v>
@@ -9823,13 +9853,13 @@
         <v>36177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9903,7 +9933,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9918,7 +9948,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -9933,7 +9963,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>513</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9948,13 +9978,13 @@
         <v>1540</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -9963,13 +9993,13 @@
         <v>1253</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>654</v>
+        <v>531</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -9978,13 +10008,13 @@
         <v>2793</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>657</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,13 +10029,13 @@
         <v>3496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -10014,13 +10044,13 @@
         <v>568</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -10029,13 +10059,13 @@
         <v>4064</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>524</v>
+        <v>674</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +10080,13 @@
         <v>2551</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>667</v>
+        <v>462</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -10065,13 +10095,13 @@
         <v>766</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>669</v>
+        <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -10080,13 +10110,13 @@
         <v>3317</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,13 +10131,13 @@
         <v>25017</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>675</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -10116,13 +10146,13 @@
         <v>14548</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="M32" s="7">
         <v>55</v>
@@ -10131,13 +10161,13 @@
         <v>39564</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10211,7 +10241,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>516</v>
+        <v>690</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10241,7 +10271,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10256,13 +10286,13 @@
         <v>4980</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -10271,13 +10301,13 @@
         <v>6836</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="M35" s="7">
         <v>19</v>
@@ -10286,13 +10316,13 @@
         <v>11815</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>356</v>
+        <v>697</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>287</v>
+        <v>698</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10307,13 +10337,13 @@
         <v>8377</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -10322,13 +10352,13 @@
         <v>7642</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>693</v>
+        <v>454</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>565</v>
+        <v>703</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="M36" s="7">
         <v>20</v>
@@ -10337,13 +10367,13 @@
         <v>16019</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10358,13 +10388,13 @@
         <v>26402</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -10373,13 +10403,13 @@
         <v>18208</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="M37" s="7">
         <v>68</v>
@@ -10388,13 +10418,13 @@
         <v>44610</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10409,13 +10439,13 @@
         <v>69153</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="H38" s="7">
         <v>97</v>
@@ -10424,13 +10454,13 @@
         <v>65519</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="M38" s="7">
         <v>188</v>
@@ -10439,13 +10469,13 @@
         <v>134672</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10501,7 +10531,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
